--- a/_Lang_Korean/Lang/KR/Game/Material.xlsx
+++ b/_Lang_Korean/Lang/KR/Game/Material.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.18</t>
+    <t xml:space="preserve">EA 23.23 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">dark matter</t>

--- a/_Lang_Korean/Lang/KR/Game/Material.xlsx
+++ b/_Lang_Korean/Lang/KR/Game/Material.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="548">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -1218,15 +1218,6 @@
   </si>
   <si>
     <t xml:space="preserve">Alpha 15.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 20.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 20.27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 21.6</t>
   </si>
   <si>
     <t xml:space="preserve">Beta 22.68</t>
@@ -1782,7 +1773,7 @@
         <v>398</v>
       </c>
       <c r="C3" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -1801,7 +1792,7 @@
         <v>399</v>
       </c>
       <c r="C4" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -1810,7 +1801,7 @@
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="G4" t="s">
         <v>15</v>
@@ -1827,7 +1818,7 @@
         <v>398</v>
       </c>
       <c r="C5" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
@@ -1836,7 +1827,7 @@
         <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="G5" t="s">
         <v>20</v>
@@ -1853,7 +1844,7 @@
         <v>398</v>
       </c>
       <c r="C6" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D6" t="s">
         <v>23</v>
@@ -1862,7 +1853,7 @@
         <v>24</v>
       </c>
       <c r="F6" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="G6" t="s">
         <v>25</v>
@@ -1879,7 +1870,7 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D7" t="s">
         <v>28</v>
@@ -1888,7 +1879,7 @@
         <v>29</v>
       </c>
       <c r="F7" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G7"/>
       <c r="H7"/>
@@ -1901,7 +1892,7 @@
         <v>398</v>
       </c>
       <c r="C8" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D8" t="s">
         <v>31</v>
@@ -1910,7 +1901,7 @@
         <v>32</v>
       </c>
       <c r="F8" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="G8" t="s">
         <v>33</v>
@@ -1927,7 +1918,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D9" t="s">
         <v>36</v>
@@ -1936,7 +1927,7 @@
         <v>37</v>
       </c>
       <c r="F9" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G9"/>
       <c r="H9"/>
@@ -1949,7 +1940,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D10" t="s">
         <v>39</v>
@@ -1958,7 +1949,7 @@
         <v>40</v>
       </c>
       <c r="F10" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G10"/>
       <c r="H10"/>
@@ -1971,7 +1962,7 @@
         <v>398</v>
       </c>
       <c r="C11" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D11" t="s">
         <v>42</v>
@@ -1980,7 +1971,7 @@
         <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="G11" t="s">
         <v>44</v>
@@ -1997,7 +1988,7 @@
         <v>398</v>
       </c>
       <c r="C12" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D12" t="s">
         <v>47</v>
@@ -2006,7 +1997,7 @@
         <v>48</v>
       </c>
       <c r="F12" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="G12" t="s">
         <v>49</v>
@@ -2023,7 +2014,7 @@
         <v>398</v>
       </c>
       <c r="C13" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D13" t="s">
         <v>52</v>
@@ -2032,7 +2023,7 @@
         <v>53</v>
       </c>
       <c r="F13" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="G13" t="s">
         <v>54</v>
@@ -2049,7 +2040,7 @@
         <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D14" t="s">
         <v>57</v>
@@ -2058,7 +2049,7 @@
         <v>58</v>
       </c>
       <c r="F14" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G14"/>
       <c r="H14"/>
@@ -2071,7 +2062,7 @@
         <v>398</v>
       </c>
       <c r="C15" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D15" t="s">
         <v>60</v>
@@ -2080,7 +2071,7 @@
         <v>61</v>
       </c>
       <c r="F15" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="G15" t="s">
         <v>62</v>
@@ -2097,7 +2088,7 @@
         <v>398</v>
       </c>
       <c r="C16" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="D16" t="s">
         <v>65</v>
@@ -2106,7 +2097,7 @@
         <v>66</v>
       </c>
       <c r="F16" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="G16" t="s">
         <v>67</v>
@@ -2123,7 +2114,7 @@
         <v>398</v>
       </c>
       <c r="C17" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="D17" t="s">
         <v>70</v>
@@ -2132,7 +2123,7 @@
         <v>71</v>
       </c>
       <c r="F17" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="G17" t="s">
         <v>72</v>
@@ -2149,7 +2140,7 @@
         <v>398</v>
       </c>
       <c r="C18" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="D18" t="s">
         <v>75</v>
@@ -2158,7 +2149,7 @@
         <v>76</v>
       </c>
       <c r="F18" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="G18" t="s">
         <v>77</v>
@@ -2175,7 +2166,7 @@
         <v>398</v>
       </c>
       <c r="C19" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="D19" t="s">
         <v>80</v>
@@ -2184,7 +2175,7 @@
         <v>81</v>
       </c>
       <c r="F19" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="G19" t="s">
         <v>82</v>
@@ -2201,7 +2192,7 @@
         <v>398</v>
       </c>
       <c r="C20" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="D20" t="s">
         <v>85</v>
@@ -2210,7 +2201,7 @@
         <v>86</v>
       </c>
       <c r="F20" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="G20" t="s">
         <v>87</v>
@@ -2227,7 +2218,7 @@
         <v>398</v>
       </c>
       <c r="C21" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="D21" t="s">
         <v>90</v>
@@ -2236,7 +2227,7 @@
         <v>91</v>
       </c>
       <c r="F21" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="G21" t="s">
         <v>92</v>
@@ -2253,7 +2244,7 @@
         <v>400</v>
       </c>
       <c r="C22" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="D22" t="s">
         <v>95</v>
@@ -2262,7 +2253,7 @@
         <v>96</v>
       </c>
       <c r="F22" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="G22" t="s">
         <v>97</v>
@@ -2279,7 +2270,7 @@
         <v>398</v>
       </c>
       <c r="C23" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="D23" t="s">
         <v>100</v>
@@ -2288,7 +2279,7 @@
         <v>101</v>
       </c>
       <c r="F23" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="G23" t="s">
         <v>102</v>
@@ -2305,7 +2296,7 @@
         <v>398</v>
       </c>
       <c r="C24" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="D24" t="s">
         <v>105</v>
@@ -2314,7 +2305,7 @@
         <v>106</v>
       </c>
       <c r="F24" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="G24" t="s">
         <v>107</v>
@@ -2331,7 +2322,7 @@
         <v>399</v>
       </c>
       <c r="C25" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D25" t="s">
         <v>110</v>
@@ -2340,7 +2331,7 @@
         <v>111</v>
       </c>
       <c r="F25" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="G25" t="s">
         <v>112</v>
@@ -2357,7 +2348,7 @@
         <v>398</v>
       </c>
       <c r="C26" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="D26" t="s">
         <v>115</v>
@@ -2366,7 +2357,7 @@
         <v>116</v>
       </c>
       <c r="F26" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="G26" t="s">
         <v>117</v>
@@ -2383,7 +2374,7 @@
         <v>398</v>
       </c>
       <c r="C27" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D27" t="s">
         <v>120</v>
@@ -2392,7 +2383,7 @@
         <v>121</v>
       </c>
       <c r="F27" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="G27" t="s">
         <v>122</v>
@@ -2409,7 +2400,7 @@
         <v>398</v>
       </c>
       <c r="C28" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="D28" t="s">
         <v>125</v>
@@ -2418,7 +2409,7 @@
         <v>126</v>
       </c>
       <c r="F28" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="G28" t="s">
         <v>127</v>
@@ -2435,7 +2426,7 @@
         <v>398</v>
       </c>
       <c r="C29" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="D29" t="s">
         <v>130</v>
@@ -2444,7 +2435,7 @@
         <v>131</v>
       </c>
       <c r="F29" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="G29" t="s">
         <v>132</v>
@@ -2461,7 +2452,7 @@
         <v>398</v>
       </c>
       <c r="C30" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="D30" t="s">
         <v>135</v>
@@ -2470,7 +2461,7 @@
         <v>136</v>
       </c>
       <c r="F30" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="G30" t="s">
         <v>137</v>
@@ -2487,7 +2478,7 @@
         <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="D31" t="s">
         <v>140</v>
@@ -2496,7 +2487,7 @@
         <v>141</v>
       </c>
       <c r="F31" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G31"/>
       <c r="H31"/>
@@ -2509,7 +2500,7 @@
         <v>398</v>
       </c>
       <c r="C32" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="D32" t="s">
         <v>143</v>
@@ -2518,7 +2509,7 @@
         <v>144</v>
       </c>
       <c r="F32" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="G32" t="s">
         <v>145</v>
@@ -2535,7 +2526,7 @@
         <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="D33" t="s">
         <v>148</v>
@@ -2544,7 +2535,7 @@
         <v>149</v>
       </c>
       <c r="F33" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G33"/>
       <c r="H33"/>
@@ -2557,7 +2548,7 @@
         <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D34" t="s">
         <v>151</v>
@@ -2566,7 +2557,7 @@
         <v>152</v>
       </c>
       <c r="F34" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G34"/>
       <c r="H34"/>
@@ -2579,7 +2570,7 @@
         <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D35" t="s">
         <v>154</v>
@@ -2588,7 +2579,7 @@
         <v>155</v>
       </c>
       <c r="F35" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G35"/>
       <c r="H35"/>
@@ -2601,7 +2592,7 @@
         <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="D36" t="s">
         <v>157</v>
@@ -2610,7 +2601,7 @@
         <v>158</v>
       </c>
       <c r="F36" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G36"/>
       <c r="H36"/>
@@ -2623,7 +2614,7 @@
         <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D37" t="s">
         <v>160</v>
@@ -2632,7 +2623,7 @@
         <v>161</v>
       </c>
       <c r="F37" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G37"/>
       <c r="H37"/>
@@ -2645,7 +2636,7 @@
         <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D38" t="s">
         <v>163</v>
@@ -2654,7 +2645,7 @@
         <v>164</v>
       </c>
       <c r="F38" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G38"/>
       <c r="H38"/>
@@ -2667,7 +2658,7 @@
         <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="D39" t="s">
         <v>166</v>
@@ -2676,7 +2667,7 @@
         <v>167</v>
       </c>
       <c r="F39" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G39"/>
       <c r="H39"/>
@@ -2689,7 +2680,7 @@
         <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D40" t="s">
         <v>169</v>
@@ -2698,7 +2689,7 @@
         <v>170</v>
       </c>
       <c r="F40" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G40"/>
       <c r="H40"/>
@@ -2711,7 +2702,7 @@
         <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D41" t="s">
         <v>172</v>
@@ -2720,7 +2711,7 @@
         <v>173</v>
       </c>
       <c r="F41" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G41"/>
       <c r="H41"/>
@@ -2733,7 +2724,7 @@
         <v>398</v>
       </c>
       <c r="C42" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="D42" t="s">
         <v>175</v>
@@ -2742,7 +2733,7 @@
         <v>176</v>
       </c>
       <c r="F42" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="G42" t="s">
         <v>177</v>
@@ -2759,7 +2750,7 @@
         <v>398</v>
       </c>
       <c r="C43" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D43" t="s">
         <v>180</v>
@@ -2768,7 +2759,7 @@
         <v>181</v>
       </c>
       <c r="F43" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="G43" t="s">
         <v>182</v>
@@ -2785,7 +2776,7 @@
         <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="D44" t="s">
         <v>185</v>
@@ -2794,7 +2785,7 @@
         <v>186</v>
       </c>
       <c r="F44" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G44"/>
       <c r="H44"/>
@@ -2807,7 +2798,7 @@
         <v>398</v>
       </c>
       <c r="C45" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="D45" t="s">
         <v>188</v>
@@ -2816,7 +2807,7 @@
         <v>189</v>
       </c>
       <c r="F45" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="G45" t="s">
         <v>190</v>
@@ -2833,7 +2824,7 @@
         <v>398</v>
       </c>
       <c r="C46" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="D46" t="s">
         <v>193</v>
@@ -2842,7 +2833,7 @@
         <v>194</v>
       </c>
       <c r="F46" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="G46" t="s">
         <v>195</v>
@@ -2859,7 +2850,7 @@
         <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D47" t="s">
         <v>198</v>
@@ -2868,7 +2859,7 @@
         <v>199</v>
       </c>
       <c r="F47" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G47"/>
       <c r="H47"/>
@@ -2881,7 +2872,7 @@
         <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="D48" t="s">
         <v>201</v>
@@ -2890,7 +2881,7 @@
         <v>202</v>
       </c>
       <c r="F48" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G48"/>
       <c r="H48"/>
@@ -2903,7 +2894,7 @@
         <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D49" t="s">
         <v>204</v>
@@ -2912,7 +2903,7 @@
         <v>205</v>
       </c>
       <c r="F49" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G49"/>
       <c r="H49"/>
@@ -2925,7 +2916,7 @@
         <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D50" t="s">
         <v>207</v>
@@ -2934,7 +2925,7 @@
         <v>208</v>
       </c>
       <c r="F50" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G50"/>
       <c r="H50"/>
@@ -2947,7 +2938,7 @@
         <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D51" t="s">
         <v>210</v>
@@ -2956,7 +2947,7 @@
         <v>211</v>
       </c>
       <c r="F51" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G51"/>
       <c r="H51"/>
@@ -2969,7 +2960,7 @@
         <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="D52" t="s">
         <v>213</v>
@@ -2978,7 +2969,7 @@
         <v>214</v>
       </c>
       <c r="F52" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G52"/>
       <c r="H52"/>
@@ -2991,7 +2982,7 @@
         <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D53" t="s">
         <v>216</v>
@@ -3000,7 +2991,7 @@
         <v>217</v>
       </c>
       <c r="F53" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G53"/>
       <c r="H53"/>
@@ -3013,7 +3004,7 @@
         <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="D54" t="s">
         <v>219</v>
@@ -3022,7 +3013,7 @@
         <v>220</v>
       </c>
       <c r="F54" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G54"/>
       <c r="H54"/>
@@ -3035,7 +3026,7 @@
         <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="D55" t="s">
         <v>222</v>
@@ -3044,7 +3035,7 @@
         <v>223</v>
       </c>
       <c r="F55" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G55"/>
       <c r="H55"/>
@@ -3057,7 +3048,7 @@
         <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="D56" t="s">
         <v>225</v>
@@ -3066,7 +3057,7 @@
         <v>226</v>
       </c>
       <c r="F56" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G56"/>
       <c r="H56"/>
@@ -3079,7 +3070,7 @@
         <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D57" t="s">
         <v>228</v>
@@ -3088,7 +3079,7 @@
         <v>229</v>
       </c>
       <c r="F57" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G57"/>
       <c r="H57"/>
@@ -3101,7 +3092,7 @@
         <v>399</v>
       </c>
       <c r="C58" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="D58" t="s">
         <v>231</v>
@@ -3110,7 +3101,7 @@
         <v>232</v>
       </c>
       <c r="F58" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="G58" t="s">
         <v>233</v>
@@ -3127,7 +3118,7 @@
         <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D59" t="s">
         <v>236</v>
@@ -3136,7 +3127,7 @@
         <v>237</v>
       </c>
       <c r="F59" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G59"/>
       <c r="H59"/>
@@ -3149,7 +3140,7 @@
         <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D60" t="s">
         <v>239</v>
@@ -3158,7 +3149,7 @@
         <v>240</v>
       </c>
       <c r="F60" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G60"/>
       <c r="H60"/>
@@ -3171,7 +3162,7 @@
         <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="D61" t="s">
         <v>242</v>
@@ -3180,7 +3171,7 @@
         <v>243</v>
       </c>
       <c r="F61" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G61"/>
       <c r="H61"/>
@@ -3193,7 +3184,7 @@
         <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="D62" t="s">
         <v>245</v>
@@ -3202,7 +3193,7 @@
         <v>246</v>
       </c>
       <c r="F62" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G62"/>
       <c r="H62"/>
@@ -3215,7 +3206,7 @@
         <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D63" t="s">
         <v>248</v>
@@ -3224,7 +3215,7 @@
         <v>249</v>
       </c>
       <c r="F63" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G63"/>
       <c r="H63"/>
@@ -3237,7 +3228,7 @@
         <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="D64" t="s">
         <v>251</v>
@@ -3246,7 +3237,7 @@
         <v>252</v>
       </c>
       <c r="F64" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G64"/>
       <c r="H64"/>
@@ -3259,7 +3250,7 @@
         <v>398</v>
       </c>
       <c r="C65" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D65" t="s">
         <v>254</v>
@@ -3268,7 +3259,7 @@
         <v>255</v>
       </c>
       <c r="F65" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="G65" t="s">
         <v>256</v>
@@ -3285,7 +3276,7 @@
         <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D66" t="s">
         <v>259</v>
@@ -3294,7 +3285,7 @@
         <v>260</v>
       </c>
       <c r="F66" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G66"/>
       <c r="H66"/>
@@ -3307,7 +3298,7 @@
         <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="D67" t="s">
         <v>262</v>
@@ -3316,7 +3307,7 @@
         <v>263</v>
       </c>
       <c r="F67" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G67"/>
       <c r="H67"/>
@@ -3329,7 +3320,7 @@
         <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D68" t="s">
         <v>265</v>
@@ -3338,7 +3329,7 @@
         <v>266</v>
       </c>
       <c r="F68" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G68"/>
       <c r="H68"/>
@@ -3351,7 +3342,7 @@
         <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D69" t="s">
         <v>268</v>
@@ -3360,7 +3351,7 @@
         <v>269</v>
       </c>
       <c r="F69" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G69"/>
       <c r="H69"/>
@@ -3373,7 +3364,7 @@
         <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D70" t="s">
         <v>271</v>
@@ -3382,7 +3373,7 @@
         <v>272</v>
       </c>
       <c r="F70" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G70"/>
       <c r="H70"/>
@@ -3395,7 +3386,7 @@
         <v>398</v>
       </c>
       <c r="C71" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="D71" t="s">
         <v>274</v>
@@ -3404,7 +3395,7 @@
         <v>275</v>
       </c>
       <c r="F71" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="G71" t="s">
         <v>276</v>
@@ -3421,7 +3412,7 @@
         <v>398</v>
       </c>
       <c r="C72" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D72" t="s">
         <v>279</v>
@@ -3430,7 +3421,7 @@
         <v>280</v>
       </c>
       <c r="F72" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="G72" t="s">
         <v>281</v>
@@ -3447,7 +3438,7 @@
         <v>399</v>
       </c>
       <c r="C73" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D73" t="s">
         <v>284</v>
@@ -3456,7 +3447,7 @@
         <v>285</v>
       </c>
       <c r="F73" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="G73" t="s">
         <v>286</v>
@@ -3473,7 +3464,7 @@
         <v>398</v>
       </c>
       <c r="C74" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D74" t="s">
         <v>289</v>
@@ -3482,7 +3473,7 @@
         <v>290</v>
       </c>
       <c r="F74" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="G74" t="s">
         <v>291</v>
@@ -3499,7 +3490,7 @@
         <v>398</v>
       </c>
       <c r="C75" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D75" t="s">
         <v>294</v>
@@ -3508,7 +3499,7 @@
         <v>295</v>
       </c>
       <c r="F75" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="G75" t="s">
         <v>296</v>
@@ -3525,7 +3516,7 @@
         <v>399</v>
       </c>
       <c r="C76" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D76" t="s">
         <v>299</v>
@@ -3534,7 +3525,7 @@
         <v>300</v>
       </c>
       <c r="F76" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="G76" t="s">
         <v>301</v>
@@ -3551,7 +3542,7 @@
         <v>398</v>
       </c>
       <c r="C77" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="D77" t="s">
         <v>304</v>
@@ -3560,7 +3551,7 @@
         <v>305</v>
       </c>
       <c r="F77" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="G77" t="s">
         <v>306</v>
@@ -3577,7 +3568,7 @@
         <v>398</v>
       </c>
       <c r="C78" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D78" t="s">
         <v>309</v>
@@ -3586,7 +3577,7 @@
         <v>310</v>
       </c>
       <c r="F78" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="G78" t="s">
         <v>311</v>
@@ -3603,7 +3594,7 @@
         <v>398</v>
       </c>
       <c r="C79" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D79" t="s">
         <v>314</v>
@@ -3612,7 +3603,7 @@
         <v>315</v>
       </c>
       <c r="F79" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="G79" t="s">
         <v>316</v>
@@ -3629,7 +3620,7 @@
         <v>398</v>
       </c>
       <c r="C80" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D80" t="s">
         <v>319</v>
@@ -3638,7 +3629,7 @@
         <v>320</v>
       </c>
       <c r="F80" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="G80" t="s">
         <v>321</v>
@@ -3655,7 +3646,7 @@
         <v>398</v>
       </c>
       <c r="C81" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D81" t="s">
         <v>324</v>
@@ -3664,7 +3655,7 @@
         <v>325</v>
       </c>
       <c r="F81" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="G81" t="s">
         <v>326</v>
@@ -3681,7 +3672,7 @@
         <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="D82" t="s">
         <v>329</v>
@@ -3690,7 +3681,7 @@
         <v>330</v>
       </c>
       <c r="F82" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G82"/>
       <c r="H82"/>
@@ -3703,7 +3694,7 @@
         <v>399</v>
       </c>
       <c r="C83" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="D83" t="s">
         <v>332</v>
@@ -3712,7 +3703,7 @@
         <v>333</v>
       </c>
       <c r="F83" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="G83" t="s">
         <v>334</v>
@@ -3729,7 +3720,7 @@
         <v>399</v>
       </c>
       <c r="C84" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D84" t="s">
         <v>337</v>
@@ -3738,7 +3729,7 @@
         <v>338</v>
       </c>
       <c r="F84" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="G84" t="s">
         <v>339</v>
@@ -3755,7 +3746,7 @@
         <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="D85" t="s">
         <v>342</v>
@@ -3764,7 +3755,7 @@
         <v>343</v>
       </c>
       <c r="F85" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G85"/>
       <c r="H85"/>
@@ -3777,7 +3768,7 @@
         <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="D86" t="s">
         <v>345</v>
@@ -3786,7 +3777,7 @@
         <v>346</v>
       </c>
       <c r="F86" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G86"/>
       <c r="H86"/>
@@ -3799,7 +3790,7 @@
         <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D87" t="s">
         <v>348</v>
@@ -3808,7 +3799,7 @@
         <v>349</v>
       </c>
       <c r="F87" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G87"/>
       <c r="H87"/>
@@ -3821,7 +3812,7 @@
         <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D88" t="s">
         <v>351</v>
@@ -3830,7 +3821,7 @@
         <v>352</v>
       </c>
       <c r="F88" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G88"/>
       <c r="H88"/>
@@ -3843,7 +3834,7 @@
         <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D89" t="s">
         <v>242</v>
@@ -3852,7 +3843,7 @@
         <v>354</v>
       </c>
       <c r="F89" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G89"/>
       <c r="H89"/>
@@ -3865,7 +3856,7 @@
         <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D90" t="s">
         <v>356</v>
@@ -3874,7 +3865,7 @@
         <v>357</v>
       </c>
       <c r="F90" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G90"/>
       <c r="H90"/>
@@ -3887,7 +3878,7 @@
         <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="D91" t="s">
         <v>359</v>
@@ -3896,7 +3887,7 @@
         <v>360</v>
       </c>
       <c r="F91" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G91"/>
       <c r="H91"/>
@@ -3909,7 +3900,7 @@
         <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="D92" t="s">
         <v>362</v>
@@ -3918,7 +3909,7 @@
         <v>363</v>
       </c>
       <c r="F92" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G92"/>
       <c r="H92"/>
@@ -3931,7 +3922,7 @@
         <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="D93" t="s">
         <v>365</v>
@@ -3940,7 +3931,7 @@
         <v>366</v>
       </c>
       <c r="F93" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G93"/>
       <c r="H93"/>
@@ -3953,7 +3944,7 @@
         <v>399</v>
       </c>
       <c r="C94" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="D94" t="s">
         <v>368</v>
@@ -3962,7 +3953,7 @@
         <v>369</v>
       </c>
       <c r="F94" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="G94" t="s">
         <v>370</v>
@@ -3979,7 +3970,7 @@
         <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="D95" t="s">
         <v>373</v>
@@ -3988,7 +3979,7 @@
         <v>374</v>
       </c>
       <c r="F95" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G95"/>
       <c r="H95"/>
@@ -4001,7 +3992,7 @@
         <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="D96" t="s">
         <v>376</v>
@@ -4010,7 +4001,7 @@
         <v>377</v>
       </c>
       <c r="F96" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G96"/>
       <c r="H96"/>
@@ -4023,7 +4014,7 @@
         <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="D97" t="s">
         <v>379</v>
@@ -4032,7 +4023,7 @@
         <v>380</v>
       </c>
       <c r="F97" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G97"/>
       <c r="H97"/>
@@ -4045,7 +4036,7 @@
         <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="D98" t="s">
         <v>382</v>
@@ -4054,7 +4045,7 @@
         <v>383</v>
       </c>
       <c r="F98" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G98"/>
       <c r="H98"/>
@@ -4067,7 +4058,7 @@
         <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="D99" t="s">
         <v>385</v>
@@ -4076,7 +4067,7 @@
         <v>386</v>
       </c>
       <c r="F99" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G99"/>
       <c r="H99"/>
@@ -4089,7 +4080,7 @@
         <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="D100" t="s">
         <v>388</v>
@@ -4098,7 +4089,7 @@
         <v>389</v>
       </c>
       <c r="F100" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G100"/>
       <c r="H100"/>
@@ -4111,7 +4102,7 @@
         <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="D101" t="s">
         <v>391</v>
@@ -4120,7 +4111,7 @@
         <v>392</v>
       </c>
       <c r="F101" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G101"/>
       <c r="H101"/>
@@ -4130,10 +4121,10 @@
         <v>393</v>
       </c>
       <c r="B102" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C102" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="D102" t="s">
         <v>394</v>
@@ -4142,7 +4133,7 @@
         <v>395</v>
       </c>
       <c r="F102" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="G102" t="s">
         <v>396</v>
